--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>157.26769</v>
+        <v>0.01650666666666667</v>
       </c>
       <c r="N2">
-        <v>471.80307</v>
+        <v>0.04952</v>
       </c>
       <c r="O2">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="P2">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="Q2">
-        <v>32048.27166648128</v>
+        <v>1.369849987706667</v>
       </c>
       <c r="R2">
-        <v>288434.4449983316</v>
+        <v>12.32864988936</v>
       </c>
       <c r="S2">
-        <v>0.6667148097363184</v>
+        <v>0.3573016678923728</v>
       </c>
       <c r="T2">
-        <v>0.6667148097363185</v>
+        <v>0.3573016678923728</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.012702</v>
       </c>
       <c r="O3">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="P3">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="Q3">
-        <v>0.8628115681986667</v>
+        <v>0.351369841354</v>
       </c>
       <c r="R3">
-        <v>7.765304113788001</v>
+        <v>3.162328572186</v>
       </c>
       <c r="S3">
-        <v>1.794946250195175E-05</v>
+        <v>0.09164874365042244</v>
       </c>
       <c r="T3">
-        <v>1.794946250195175E-05</v>
+        <v>0.09164874365042244</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H4">
         <v>189.421768</v>
       </c>
       <c r="I4">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J4">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>157.26769</v>
+        <v>0.01650666666666667</v>
       </c>
       <c r="N4">
-        <v>471.80307</v>
+        <v>0.04952</v>
       </c>
       <c r="O4">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="P4">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="Q4">
-        <v>9929.974629691973</v>
+        <v>1.042240661262222</v>
       </c>
       <c r="R4">
-        <v>89369.77166722776</v>
+        <v>9.38016595136</v>
       </c>
       <c r="S4">
-        <v>0.2065777903663296</v>
+        <v>0.2718504434472312</v>
       </c>
       <c r="T4">
-        <v>0.2065777903663296</v>
+        <v>0.2718504434472312</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
         <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,22 +744,22 @@
         <v>0.012702</v>
       </c>
       <c r="O5">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="P5">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="Q5">
-        <v>0.2673372552373334</v>
+        <v>0.2673372552373333</v>
       </c>
       <c r="R5">
         <v>2.406035297136</v>
       </c>
       <c r="S5">
-        <v>5.561538828547935E-06</v>
+        <v>0.0697302975094251</v>
       </c>
       <c r="T5">
-        <v>5.561538828547935E-06</v>
+        <v>0.0697302975094251</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,40 +788,40 @@
         <v>116.159826</v>
       </c>
       <c r="I6">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J6">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>157.26769</v>
+        <v>0.01650666666666667</v>
       </c>
       <c r="N6">
-        <v>471.80307</v>
+        <v>0.04952</v>
       </c>
       <c r="O6">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="P6">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="Q6">
-        <v>6089.395835273979</v>
+        <v>0.6391371759466667</v>
       </c>
       <c r="R6">
-        <v>54804.56251746582</v>
+        <v>5.752234583520001</v>
       </c>
       <c r="S6">
-        <v>0.1266804783725666</v>
+        <v>0.1667078738746289</v>
       </c>
       <c r="T6">
-        <v>0.1266804783725666</v>
+        <v>0.1667078738746289</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>116.159826</v>
       </c>
       <c r="I7">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J7">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,10 +868,10 @@
         <v>0.012702</v>
       </c>
       <c r="O7">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="P7">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="Q7">
         <v>0.163940234428</v>
@@ -880,10 +880,10 @@
         <v>1.475462109852</v>
       </c>
       <c r="S7">
-        <v>3.410523454814189E-06</v>
+        <v>0.04276097362591956</v>
       </c>
       <c r="T7">
-        <v>3.410523454814189E-06</v>
+        <v>0.04276097362591956</v>
       </c>
     </row>
   </sheetData>
